--- a/medicine/Mort/Nécropole_du_monastère_Donskoï/Nécropole_du_monastère_Donskoï.xlsx
+++ b/medicine/Mort/Nécropole_du_monastère_Donskoï/Nécropole_du_monastère_Donskoï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_du_monast%C3%A8re_Donsko%C3%AF</t>
+          <t>Nécropole_du_monastère_Donskoï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole du monastère Donskoï (aussi ancien cimetière Donskoï[1]) est la plus grande nécropole encore existante des XVIIIe et XIXe siècles à Moscou. Le cimetière occupe près de la moitié du territoire du monastère Donskoï (2,5 hectares sur 5 hectares) et est ouvert de 08h00 à 18h30 tous les jours.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole du monastère Donskoï (aussi ancien cimetière Donskoï) est la plus grande nécropole encore existante des XVIIIe et XIXe siècles à Moscou. Le cimetière occupe près de la moitié du territoire du monastère Donskoï (2,5 hectares sur 5 hectares) et est ouvert de 08h00 à 18h30 tous les jours.
 En raison de la saturation de la nécropole historique dans les années 1900, le nouveau cimetière Donskoy a été aménagé à l'extérieur du monastère — au sud du mur du monastère —. Des inhumations y ont encore été réalisées tout au long du XXe siècle.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_du_monast%C3%A8re_Donsko%C3%AF</t>
+          <t>Nécropole_du_monastère_Donskoï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nécropole de la petite cathédrale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En plus des abbés du monastère de différentes années, reposent trois évêques :
 Tikhon de Moscou (1865-1925), patriarche de Moscou et de toute la Russie ;
@@ -524,9 +538,43 @@
 le lieutenant général P. M. Golitsyn ;
 le maréchal Nicolas Repnine ;
 le général de cavalerie Alexandre Tormassov ;
-le directeur de l'Ermitage A. A. Vasilchikov.
-Personnalités inhumées dans le cimetière
-Ambroise de Moscou, figure religieuse ukrainienne de l'Hetmanat cosaque, écrivain spirituel, traducteur d'œuvres grecques, juives et latines.
+le directeur de l'Ermitage A. A. Vasilchikov.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nécropole_du_monastère_Donskoï</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_du_monast%C3%A8re_Donsko%C3%AF</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nécropole de la petite cathédrale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées dans le cimetière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ambroise de Moscou, figure religieuse ukrainienne de l'Hetmanat cosaque, écrivain spirituel, traducteur d'œuvres grecques, juives et latines.
 Mikhaïl Astangov, acteur de théâtre et cinéma
 Artchil, roi d'Iméréthie (1661 - 1663, 1668 - 1669, 1678 - 1679, 1690 - 1691, 1695 - 1696, 1698) et Kakheti (1664 - 1675), poète, fils aîné du roi Vakhtang V, l'un des fondateurs de la colonie géorgienne à Moscou.
 Arsenevsky Vasily Kindratovich, personnage religieux ukrainien, éducateur de Tver Carélie et de Moscovie, professeur de mathématiques, enseignant, traducteur, master en philosophie.
@@ -534,7 +582,7 @@
 Bantysh-Kamensky Dmitry Nikolaevich, historien et archéologue russe et ukrainien.
 Piotr Baranovski, restaurateur russe et chercheur de monuments architecturaux du Moyen Âge. Il est le fondateur du Musée central de la culture et de la peinture russe ancienne Andreï Roublev et du musée Kolomensky à Moscou.
 Joseph Ivanovitch Bové, architecte russe, maître exceptionnel du classicisme russe.
-Anton Dénikine, personnalité militaire russe, lieutenant général, héros de la guerre russo-japonaise et de la Première Guerre mondiale, l'un des dirigeants du Mouvement blanc et commandant en chef des Forces Armées du Sud de la Russie (1918-1920)[2].
+Anton Dénikine, personnalité militaire russe, lieutenant général, héros de la guerre russo-japonaise et de la Première Guerre mondiale, l'un des dirigeants du Mouvement blanc et commandant en chef des Forces Armées du Sud de la Russie (1918-1920).
 Nikolaï Joukovski, scientifique russe de renom, créateur de l'aérodynamique en tant que science, fondateur de l'hydromécanique et de l'aéromécanique modernes.
 Alexey Ivanovsky, commandant militaire russe, général de la cavalerie (1796), ataman militaire des troupes de Donskoï.
 Vassili Klioutchevski, historien russe de la ligne impériale, cadets, académicien (depuis 1900), académicien honoraire de l'Académie des sciences de Saint-Pétersbourg (depuis 1908).
